--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H2">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N2">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q2">
-        <v>3361.498260289995</v>
+        <v>2.469663348592</v>
       </c>
       <c r="R2">
-        <v>30253.48434260996</v>
+        <v>22.226970137328</v>
       </c>
       <c r="S2">
-        <v>0.02866236705346352</v>
+        <v>5.318808585117799E-05</v>
       </c>
       <c r="T2">
-        <v>0.02866236705346352</v>
+        <v>5.3188085851178E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H3">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N3">
         <v>113.480522</v>
       </c>
       <c r="O3">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P3">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q3">
-        <v>17541.53936127327</v>
+        <v>28.28096002760178</v>
       </c>
       <c r="R3">
-        <v>157873.8542514594</v>
+        <v>254.528640248416</v>
       </c>
       <c r="S3">
-        <v>0.1495708166191993</v>
+        <v>0.0006090749699789624</v>
       </c>
       <c r="T3">
-        <v>0.1495708166191994</v>
+        <v>0.0006090749699789625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H4">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N4">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q4">
-        <v>3975.195497490524</v>
+        <v>6.840478823829333</v>
       </c>
       <c r="R4">
-        <v>35776.75947741472</v>
+        <v>61.564309414464</v>
       </c>
       <c r="S4">
-        <v>0.0338951573482354</v>
+        <v>0.000147320473923066</v>
       </c>
       <c r="T4">
-        <v>0.0338951573482354</v>
+        <v>0.000147320473923066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H5">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N5">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q5">
-        <v>17718.88724922152</v>
+        <v>35.85475494010489</v>
       </c>
       <c r="R5">
-        <v>159469.9852429936</v>
+        <v>322.692794460944</v>
       </c>
       <c r="S5">
-        <v>0.1510830025157616</v>
+        <v>0.0007721885596328293</v>
       </c>
       <c r="T5">
-        <v>0.1510830025157616</v>
+        <v>0.0007721885596328294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J6">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N6">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q6">
-        <v>88.77316218130356</v>
+        <v>40.45387332496401</v>
       </c>
       <c r="R6">
-        <v>798.958459631732</v>
+        <v>364.0848599246761</v>
       </c>
       <c r="S6">
-        <v>0.000756938948621577</v>
+        <v>0.0008712378100632895</v>
       </c>
       <c r="T6">
-        <v>0.0007569389486215769</v>
+        <v>0.0008712378100632896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J7">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N7">
         <v>113.480522</v>
       </c>
       <c r="O7">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P7">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q7">
-        <v>463.2511451883635</v>
+        <v>463.2511451883636</v>
       </c>
       <c r="R7">
         <v>4169.260306695272</v>
       </c>
       <c r="S7">
-        <v>0.003949986979966701</v>
+        <v>0.009976842266773969</v>
       </c>
       <c r="T7">
-        <v>0.0039499869799667</v>
+        <v>0.009976842266773971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J8">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N8">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q8">
-        <v>104.9801746946822</v>
+        <v>112.0492248382987</v>
       </c>
       <c r="R8">
-        <v>944.8215722521398</v>
+        <v>1008.443023544688</v>
       </c>
       <c r="S8">
-        <v>0.0008951307028717964</v>
+        <v>0.002413156349287484</v>
       </c>
       <c r="T8">
-        <v>0.0008951307028717962</v>
+        <v>0.002413156349287484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J9">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N9">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q9">
-        <v>467.9346915121338</v>
+        <v>587.3123214431498</v>
       </c>
       <c r="R9">
-        <v>4211.412223609203</v>
+        <v>5285.810892988347</v>
       </c>
       <c r="S9">
-        <v>0.003989922006984154</v>
+        <v>0.01264869488879213</v>
       </c>
       <c r="T9">
-        <v>0.003989922006984153</v>
+        <v>0.01264869488879213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H10">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N10">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q10">
-        <v>804.68197031599</v>
+        <v>62.531618375567</v>
       </c>
       <c r="R10">
-        <v>7242.137732843911</v>
+        <v>562.784565380103</v>
       </c>
       <c r="S10">
-        <v>0.006861252991548898</v>
+        <v>0.001346716785698315</v>
       </c>
       <c r="T10">
-        <v>0.006861252991548898</v>
+        <v>0.001346716785698316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H11">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N11">
         <v>113.480522</v>
       </c>
       <c r="O11">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P11">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q11">
-        <v>4199.12769920254</v>
+        <v>716.0709579096629</v>
       </c>
       <c r="R11">
-        <v>37792.14929282285</v>
+        <v>6444.638621186966</v>
       </c>
       <c r="S11">
-        <v>0.03580455204773058</v>
+        <v>0.01542171470720824</v>
       </c>
       <c r="T11">
-        <v>0.03580455204773059</v>
+        <v>0.01542171470720824</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H12">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N12">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q12">
-        <v>951.5900047010499</v>
+        <v>173.2002102884626</v>
       </c>
       <c r="R12">
-        <v>8564.310042309449</v>
+        <v>1558.801892596164</v>
       </c>
       <c r="S12">
-        <v>0.008113888476859</v>
+        <v>0.003730139032721551</v>
       </c>
       <c r="T12">
-        <v>0.008113888476859</v>
+        <v>0.003730139032721552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H13">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N13">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q13">
-        <v>4241.58158043503</v>
+        <v>907.8386550710853</v>
       </c>
       <c r="R13">
-        <v>38174.23422391527</v>
+        <v>8170.547895639767</v>
       </c>
       <c r="S13">
-        <v>0.03616654203924848</v>
+        <v>0.0195517337828525</v>
       </c>
       <c r="T13">
-        <v>0.03616654203924848</v>
+        <v>0.0195517337828525</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H14">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N14">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q14">
-        <v>4999.984042697048</v>
+        <v>1455.8717675612</v>
       </c>
       <c r="R14">
-        <v>44999.85638427344</v>
+        <v>13102.8459080508</v>
       </c>
       <c r="S14">
-        <v>0.04263318520381439</v>
+        <v>0.03135448910698637</v>
       </c>
       <c r="T14">
-        <v>0.04263318520381439</v>
+        <v>0.03135448910698638</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H15">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N15">
         <v>113.480522</v>
       </c>
       <c r="O15">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P15">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q15">
-        <v>26091.76328508408</v>
+        <v>16671.68575311529</v>
       </c>
       <c r="R15">
-        <v>234825.8695657567</v>
+        <v>150045.1717780376</v>
       </c>
       <c r="S15">
-        <v>0.2224757053078606</v>
+        <v>0.3590509830524475</v>
       </c>
       <c r="T15">
-        <v>0.2224757053078606</v>
+        <v>0.3590509830524475</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H16">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N16">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q16">
-        <v>5912.814023690462</v>
+        <v>4032.476734892266</v>
       </c>
       <c r="R16">
-        <v>53215.32621321416</v>
+        <v>36292.2906140304</v>
       </c>
       <c r="S16">
-        <v>0.05041657997206936</v>
+        <v>0.08684573097406434</v>
       </c>
       <c r="T16">
-        <v>0.05041657997206936</v>
+        <v>0.08684573097406435</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H17">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N17">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q17">
-        <v>26355.55536262952</v>
+        <v>21136.45387331204</v>
       </c>
       <c r="R17">
-        <v>237199.9982636656</v>
+        <v>190228.0848598084</v>
       </c>
       <c r="S17">
-        <v>0.2247249717857646</v>
+        <v>0.4552067891537182</v>
       </c>
       <c r="T17">
-        <v>0.2247249717857646</v>
+        <v>0.4552067891537183</v>
       </c>
     </row>
   </sheetData>
